--- a/3º/AIC/Teoría/UT2.Computadores segmentados/Plantilla-Tomasulo.xlsx
+++ b/3º/AIC/Teoría/UT2.Computadores segmentados/Plantilla-Tomasulo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcfd1cdc08a32d2c/UPV/3º/AIC/Teoría/UT2. Computadores segmentados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcfd1cdc08a32d2c/UPV/3º/AIC/Teoría/UT2.Computadores segmentados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_A5FB593A1FBFEA9B92ED72713D94D495E07764D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2786AB96-D9ED-494A-A06E-B1CFDA66D95B}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_A5FB593A1FBFEA9B92ED72713D94D495E07764D1" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0D4B22-CFDB-4AA9-9797-26CFECEBAE5A}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2148" windowWidth="13620" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="1425" windowWidth="14595" windowHeight="12090" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagrama" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Instruc.</t>
   </si>
@@ -158,6 +158,69 @@
   </si>
   <si>
     <t>add.d f0, f3, f2</t>
+  </si>
+  <si>
+    <t>REGISTROS</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>MEMORIA</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>Dato</t>
   </si>
 </sst>
 </file>
@@ -182,15 +245,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,11 +282,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +317,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -555,18 +651,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" customWidth="1"/>
-    <col min="4" max="28" width="4.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="4" max="28" width="4.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:28">
@@ -691,27 +787,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U21"/>
+  <dimension ref="A2:U39"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J23" sqref="I23:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1"/>
-    <col min="8" max="8" width="6.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="3" customWidth="1"/>
-    <col min="11" max="18" width="5.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5546875" style="1" customWidth="1"/>
-    <col min="20" max="21" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
+    <col min="14" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="5.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
@@ -1057,7 +1156,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="18" spans="10:21">
+    <row r="18" spans="1:21">
       <c r="J18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1091,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="10:21">
+    <row r="19" spans="1:21">
       <c r="K19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1106,7 +1205,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="10:21">
+    <row r="20" spans="1:21">
       <c r="K20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1121,7 +1220,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="10:21">
+    <row r="21" spans="1:21">
       <c r="K21" s="4" t="s">
         <v>37</v>
       </c>
@@ -1136,8 +1235,162 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="B32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="9"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="L27:M27"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P21:Q21"/>
